--- a/pred_ohlcv/54_21/2019-11-14 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-14 PPT ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-6778.148843610002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-3315.148843610002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-3315.148843610002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-3315.148843610002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3216.448843610002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3463.548843610002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-4925.735943610001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-4925.735943610001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-4925.735943610001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-4925.735943610001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3296.735943610001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>683.7799563899985</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5944.731456389998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>6476.812599999998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>27079.6845</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>27079.6845</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>49320.1923</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>52333.8867</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>57379.81449999999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>56640.92859999999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>55894.44619999999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>52804.32799999999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>52804.32799999999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>53141.57369999999</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>42613.05659999999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>50478.94809999999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>50478.94809999999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>60793.12769999999</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>62423.12769999999</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>63966.45099999999</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>59578.95509999998</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>59578.95509999998</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>57244.24779999998</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>57244.24779999998</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>57194.24779999998</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>57294.24779999998</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>57294.24779999998</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>56495.62339999998</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>57065.62339999998</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>57059.11749999999</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>56777.04549999999</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>56680.97459999999</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>56777.04559999999</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>56062.08049999999</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>56277.76119999999</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>56277.76119999999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>55938.95379999999</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>55938.95379999999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>54222.46839999999</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>55474.62559999999</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>63117.22899999999</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>62979.21489999999</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>61436.39639999999</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>62436.39639999999</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>63136.39639999999</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>63136.39639999999</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>62589.26279999999</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>125952.82077224</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>126227.06397224</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>124008.52837224</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>123224.27397224</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>123224.27397224</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>125516.34697224</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>127953.47357224</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>127953.47357224</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>132355.98887224</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>131690.27717224</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>130588.68497224</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>130989.21827224</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>131320.85987224</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>129906.85987224</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>126689.10057224</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-14 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-14 PPT ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-4925.735943610001</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3296.735943610001</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>683.7799563899985</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5944.731456389998</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>6476.812599999998</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>27079.6845</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>27079.6845</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>49320.1923</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>52333.8867</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>57379.81449999999</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>56640.92859999999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>55894.44619999999</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>52804.32799999999</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>52804.32799999999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>53141.57369999999</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>42613.05659999999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>50478.94809999999</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>50478.94809999999</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>60793.12769999999</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>62423.12769999999</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>63966.45099999999</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>59578.95509999998</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>59578.95509999998</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>57244.24779999998</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>57244.24779999998</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>57194.24779999998</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>57294.24779999998</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>57294.24779999998</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>56495.62339999998</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>57065.62339999998</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>57059.11749999999</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>56777.04549999999</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>56680.97459999999</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>56777.04559999999</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>56062.08049999999</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>56277.76119999999</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>56277.76119999999</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>55938.95379999999</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>55938.95379999999</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>54222.46839999999</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>55474.62559999999</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>57260.66649999999</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>63925.94649999999</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>63117.22899999999</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>62979.21489999999</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>61436.39639999999</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>62436.39639999999</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>63136.39639999999</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>63136.39639999999</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>62589.26279999999</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>123224.27397224</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>123224.27397224</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>125516.34697224</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>127953.47357224</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>127953.47357224</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>132355.98887224</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>131690.27717224</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>130588.68497224</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>130989.21827224</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>131320.85987224</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>129906.85987224</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>126689.10057224</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
